--- a/Income/SO_inc.xlsx
+++ b/Income/SO_inc.xlsx
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.0202</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.015</v>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.0</v>
+        <v>0.4436</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.4417</v>
@@ -3630,7 +3630,7 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.0</v>
+        <v>0.3322</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.3308</v>
